--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/68.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/68.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1865130181138264</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.16020092801143</v>
+        <v>-2.142002724779298</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.05200339970432356</v>
+        <v>-0.06545215062661824</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2233764717742859</v>
+        <v>-0.2069153226295325</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1592774721084344</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.305763986803445</v>
+        <v>-2.278500532552806</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0354428334892603</v>
+        <v>-0.05658146430399449</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2300734008049796</v>
+        <v>-0.2074654710799593</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1358229418287374</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.548661846714975</v>
+        <v>-2.515233924184444</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04975523208983022</v>
+        <v>-0.0728620769284304</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2760242146705015</v>
+        <v>-0.2509259788223189</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1222424647998848</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.772752192638302</v>
+        <v>-2.733554420505735</v>
       </c>
       <c r="F5" t="n">
-        <v>-8.27193222837492e-06</v>
+        <v>-0.03013835336358244</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2955410664057626</v>
+        <v>-0.269358391594322</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1126984673964083</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.976495584785314</v>
+        <v>-2.919079482038283</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06490375593203719</v>
+        <v>0.02741803113910155</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3264286693176378</v>
+        <v>-0.2965175494092362</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1011361035566156</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.988848613211831</v>
+        <v>-2.918741585983364</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2737405956505722</v>
+        <v>0.2241119601042595</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3525357139651616</v>
+        <v>-0.3223239031631233</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.08352311966573465</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.021323534684943</v>
+        <v>-2.919752834465412</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4196324016873542</v>
+        <v>0.3643150359890123</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3943848112795529</v>
+        <v>-0.3536366207866919</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.05756710238102612</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.774183066545953</v>
+        <v>-2.650615577119504</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6380321876966221</v>
+        <v>0.5529134878116934</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.409909732185498</v>
+        <v>-0.3656264414502052</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.0196651907748371</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.419377570785366</v>
+        <v>-2.28020099139958</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7298502562949514</v>
+        <v>0.6305722478993165</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.397577746022329</v>
+        <v>-0.3522935754564926</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.0316776284495001</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.05591608078037</v>
+        <v>-1.878005878897022</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8174214472210841</v>
+        <v>0.6965205309933771</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3553944121770798</v>
+        <v>-0.3058023718713719</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.09901589701530075</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.590728360783273</v>
+        <v>-1.354448140214459</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7738121188335979</v>
+        <v>0.6401053080768887</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.309094723684458</v>
+        <v>-0.2569147899473081</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1837750499798828</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.160662922956713</v>
+        <v>-0.8791009715047695</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6318780880682341</v>
+        <v>0.474412427269481</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2353961785509599</v>
+        <v>-0.1755263649213705</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2845026055202909</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.6774130120383984</v>
+        <v>-0.337731109378456</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3596521924152734</v>
+        <v>0.2014235208499085</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1156528917677206</v>
+        <v>-0.05573184480128444</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3944106595722835</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1777117107061588</v>
+        <v>0.2092048888438602</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03208209455419395</v>
+        <v>-0.1174948522114998</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0002686320550152434</v>
+        <v>0.06867916492110766</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5041147693057109</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3413515225094479</v>
+        <v>0.7602334548071559</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3328718713468042</v>
+        <v>-0.4875983783862818</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07721500479219674</v>
+        <v>0.1596360255238688</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.612030703313349</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7848248465729609</v>
+        <v>1.234578523844948</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7473971402505009</v>
+        <v>-0.8859540402287107</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2133328319840911</v>
+        <v>0.3041414818624024</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7209753577175445</v>
       </c>
       <c r="E18" t="n">
-        <v>1.346647178752667</v>
+        <v>1.801652882972132</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.099488488999559</v>
+        <v>-1.253213506287816</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3257180357230417</v>
+        <v>0.433179959759282</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8323356833597475</v>
       </c>
       <c r="E19" t="n">
-        <v>1.712698391951135</v>
+        <v>2.197834177601954</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.449962938034558</v>
+        <v>-1.613746157203068</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4786184402563356</v>
+        <v>0.594948001011816</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9427614656883039</v>
       </c>
       <c r="E20" t="n">
-        <v>1.998688977436946</v>
+        <v>2.496259825845304</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.72729203998987</v>
+        <v>-1.911943695113315</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6072744978888942</v>
+        <v>0.731240875437937</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.047948096721005</v>
       </c>
       <c r="E21" t="n">
-        <v>2.329802714429932</v>
+        <v>2.843664544114231</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.12592887526428</v>
+        <v>-2.301750098829766</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7575394351779597</v>
+        <v>0.888738252111881</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.145427169434838</v>
       </c>
       <c r="E22" t="n">
-        <v>2.584827627157243</v>
+        <v>3.103094303969017</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.438846238787164</v>
+        <v>-2.613382969407418</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8422793743226279</v>
+        <v>0.9778354645712373</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.231999464615903</v>
       </c>
       <c r="E23" t="n">
-        <v>2.855354283804784</v>
+        <v>3.356299213396913</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.806444210821865</v>
+        <v>-2.969133842216965</v>
       </c>
       <c r="G23" t="n">
-        <v>1.00025919825188</v>
+        <v>1.131107920717348</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.303947411170112</v>
       </c>
       <c r="E24" t="n">
-        <v>3.041719206109214</v>
+        <v>3.539878018049957</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.046749907857216</v>
+        <v>-3.215527462487277</v>
       </c>
       <c r="G24" t="n">
-        <v>1.127109890681264</v>
+        <v>1.260917338349637</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.360426992766321</v>
       </c>
       <c r="E25" t="n">
-        <v>3.223091317753783</v>
+        <v>3.697207056617119</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.314433724230434</v>
+        <v>-3.463418438019005</v>
       </c>
       <c r="G25" t="n">
-        <v>1.229558876675312</v>
+        <v>1.348000592734371</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.402446995651184</v>
       </c>
       <c r="E26" t="n">
-        <v>3.281298487618558</v>
+        <v>3.74042725561284</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.516902382163043</v>
+        <v>-3.64258965090153</v>
       </c>
       <c r="G26" t="n">
-        <v>1.292910117527779</v>
+        <v>1.404400567633941</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.431660127867406</v>
       </c>
       <c r="E27" t="n">
-        <v>3.359913603327322</v>
+        <v>3.79148371546342</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.741672789640944</v>
+        <v>-3.847278115137163</v>
       </c>
       <c r="G27" t="n">
-        <v>1.382372672472508</v>
+        <v>1.488578769835324</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.448861082483892</v>
       </c>
       <c r="E28" t="n">
-        <v>3.36713872366408</v>
+        <v>3.78866100257143</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.938262727130716</v>
+        <v>-4.00869667184192</v>
       </c>
       <c r="G28" t="n">
-        <v>1.44036454033839</v>
+        <v>1.535635979808467</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.455419666749121</v>
       </c>
       <c r="E29" t="n">
-        <v>3.383926180370893</v>
+        <v>3.770148690190773</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.040339966472287</v>
+        <v>-4.086906800221324</v>
       </c>
       <c r="G29" t="n">
-        <v>1.523299114279884</v>
+        <v>1.601497044245752</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.452339969300455</v>
       </c>
       <c r="E30" t="n">
-        <v>3.360689422428146</v>
+        <v>3.717530833407718</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.077526525173277</v>
+        <v>-4.095276741668338</v>
       </c>
       <c r="G30" t="n">
-        <v>1.578514623225209</v>
+        <v>1.649510609840036</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.441155031139725</v>
       </c>
       <c r="E31" t="n">
-        <v>3.36944178413948</v>
+        <v>3.692881499177622</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.138811049812584</v>
+        <v>-4.138876311324996</v>
       </c>
       <c r="G31" t="n">
-        <v>1.553685972316149</v>
+        <v>1.609846858310433</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.424170436042838</v>
       </c>
       <c r="E32" t="n">
-        <v>3.30097452865045</v>
+        <v>3.607482845702066</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.129723231729038</v>
+        <v>-4.113850960997684</v>
       </c>
       <c r="G32" t="n">
-        <v>1.534737566651617</v>
+        <v>1.58135014445141</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.403220786085986</v>
       </c>
       <c r="E33" t="n">
-        <v>3.198096768420648</v>
+        <v>3.474987337409378</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.076602800308343</v>
+        <v>-4.042829662674772</v>
       </c>
       <c r="G33" t="n">
-        <v>1.466528307608851</v>
+        <v>1.501510308023736</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.378536432207935</v>
       </c>
       <c r="E34" t="n">
-        <v>3.162104129444392</v>
+        <v>3.39996831401072</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.935048750124592</v>
+        <v>-3.897763689234307</v>
       </c>
       <c r="G34" t="n">
-        <v>1.393268905362612</v>
+        <v>1.427876414481973</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.350615940515332</v>
       </c>
       <c r="E35" t="n">
-        <v>3.073594880517421</v>
+        <v>3.283934564783463</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.838927081231129</v>
+        <v>-3.801851223132968</v>
       </c>
       <c r="G35" t="n">
-        <v>1.370790888741739</v>
+        <v>1.395146851126319</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.319299947625667</v>
       </c>
       <c r="E36" t="n">
-        <v>2.958618733743644</v>
+        <v>3.137543843633101</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.725025309729444</v>
+        <v>-3.674712953104497</v>
       </c>
       <c r="G36" t="n">
-        <v>1.305514128312778</v>
+        <v>1.329843864108258</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.283961041876064</v>
       </c>
       <c r="E37" t="n">
-        <v>2.861211961984273</v>
+        <v>3.00384679160722</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.606915085558198</v>
+        <v>-3.563577781792541</v>
       </c>
       <c r="G37" t="n">
-        <v>1.21493175900554</v>
+        <v>1.239701247608956</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.244575337453455</v>
       </c>
       <c r="E38" t="n">
-        <v>2.796937301227209</v>
+        <v>2.906737661138101</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.457901705497819</v>
+        <v>-3.414775739246656</v>
       </c>
       <c r="G38" t="n">
-        <v>1.147969787746724</v>
+        <v>1.172220233854227</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.201578784585938</v>
       </c>
       <c r="E39" t="n">
-        <v>2.644069222489782</v>
+        <v>2.717402425137908</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.256261319844235</v>
+        <v>-3.218115660879058</v>
       </c>
       <c r="G39" t="n">
-        <v>1.07594364510887</v>
+        <v>1.094943894030925</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.154649140649399</v>
       </c>
       <c r="E40" t="n">
-        <v>2.562606997061958</v>
+        <v>2.604918414249325</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.123471829785355</v>
+        <v>-3.09289925090302</v>
       </c>
       <c r="G40" t="n">
-        <v>1.004473750128209</v>
+        <v>1.022892744645323</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.102370949541531</v>
       </c>
       <c r="E41" t="n">
-        <v>2.405525586289556</v>
+        <v>2.42733756953142</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.967299200821307</v>
+        <v>-2.932384291680865</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9064161930067467</v>
+        <v>0.9215574738070172</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.045610099950259</v>
       </c>
       <c r="E42" t="n">
-        <v>2.161153548102326</v>
+        <v>2.182900879752455</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.918117637131051</v>
+        <v>-2.8761258183783</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8399561864648946</v>
+        <v>0.853393348894331</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9861725800460447</v>
       </c>
       <c r="E43" t="n">
-        <v>1.966490045070062</v>
+        <v>1.971174845788164</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.821107313811565</v>
+        <v>-2.776145181363052</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7640113034789334</v>
+        <v>0.7827553857167547</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9253838816967748</v>
       </c>
       <c r="E44" t="n">
-        <v>1.713463232479777</v>
+        <v>1.713021039989135</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.696275458822217</v>
+        <v>-2.654200690857429</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7598534742255418</v>
+        <v>0.7630921530190741</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8636379790608412</v>
       </c>
       <c r="E45" t="n">
-        <v>1.499213346755103</v>
+        <v>1.503493770064521</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.673223506844524</v>
+        <v>-2.61846909793082</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6902895813597189</v>
+        <v>0.690812283379692</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8016711503154234</v>
       </c>
       <c r="E46" t="n">
-        <v>1.261074087963561</v>
+        <v>1.263582081786349</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.578171638818076</v>
+        <v>-2.525881309438435</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5938958878444256</v>
+        <v>0.5942972156497258</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7398034383334922</v>
       </c>
       <c r="E47" t="n">
-        <v>1.077228138054101</v>
+        <v>1.080877903383761</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.528615583832297</v>
+        <v>-2.472625475627502</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5221594575280259</v>
+        <v>0.5189476152442707</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6780912993349224</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8840138065497906</v>
+        <v>0.8839881898813672</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.464311646882749</v>
+        <v>-2.400581035369345</v>
       </c>
       <c r="G48" t="n">
-        <v>0.436489389351317</v>
+        <v>0.4418591309894069</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6180633377413249</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7161862033737647</v>
+        <v>0.711612408218831</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.363536893146374</v>
+        <v>-2.294438979677587</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3550588797986838</v>
+        <v>0.3556035389630198</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.561052319309706</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5634413286130415</v>
+        <v>0.5600550490157363</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.3071265495953</v>
+        <v>-2.244141261148882</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3105572374611152</v>
+        <v>0.3119728633518475</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5075810831132175</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3674573473156183</v>
+        <v>0.3645949895796397</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.243167827748792</v>
+        <v>-2.185187548375768</v>
       </c>
       <c r="G51" t="n">
-        <v>0.225536734805143</v>
+        <v>0.2321677924027478</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.458359388332041</v>
       </c>
       <c r="E52" t="n">
-        <v>0.24192591331004</v>
+        <v>0.2453237814002035</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.19015535228788</v>
+        <v>-2.128285608759235</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1818407976815586</v>
+        <v>0.1864158126778458</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4135822064846171</v>
       </c>
       <c r="E53" t="n">
-        <v>0.05065966844726304</v>
+        <v>0.06099538423543563</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.109146297922881</v>
+        <v>-2.057997740050112</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1454712277270719</v>
+        <v>0.146538588911381</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3729297394318064</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1592896665856605</v>
+        <v>-0.1371092912550406</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.989431677411448</v>
+        <v>-1.948839626611835</v>
       </c>
       <c r="G54" t="n">
-        <v>0.08527632637677582</v>
+        <v>0.08764830788864901</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3354310350779729</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2658836734988883</v>
+        <v>-0.245861197522603</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.946738449880438</v>
+        <v>-1.919915968279089</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05273644835159018</v>
+        <v>0.06055197190343979</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3004879594123914</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4155826043999317</v>
+        <v>-0.3956863820037332</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.921117512012282</v>
+        <v>-1.902808303216982</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.05820080370076058</v>
+        <v>-0.045587034184934</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2677940809139568</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5213757854645893</v>
+        <v>-0.5041961497626267</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.829962427189578</v>
+        <v>-1.818947869688185</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08054463777274894</v>
+        <v>-0.06716053844218955</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2368838255360751</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7198250661374281</v>
+        <v>-0.6876505305976146</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.790327341931782</v>
+        <v>-1.784198858971818</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1293321927058261</v>
+        <v>-0.1187146935649959</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2078237858297826</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.835223887940191</v>
+        <v>-0.8084380015794465</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.767425430440569</v>
+        <v>-1.761320734386998</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2049879732910087</v>
+        <v>-0.1904797901532027</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1801881848687601</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.9518571891926918</v>
+        <v>-0.9295895952052969</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.704322427303538</v>
+        <v>-1.710892492833469</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2318293624333372</v>
+        <v>-0.2130529543996483</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1533435702926312</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.138856429000939</v>
+        <v>-1.106511725592313</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.635153763036248</v>
+        <v>-1.644650837893892</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.275073958256128</v>
+        <v>-0.2594941444892757</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1272802516868411</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.26517893012426</v>
+        <v>-1.230455536076316</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.548560274954943</v>
+        <v>-1.573472484996717</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3228020809736938</v>
+        <v>-0.3088690530340612</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1024817280537403</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.348474577106389</v>
+        <v>-1.316780049139176</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.563300227949913</v>
+        <v>-1.592736219651128</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3916047928349352</v>
+        <v>-0.3753650448958414</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.07896012123974443</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.502353904325863</v>
+        <v>-1.466380172890586</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.501487816964881</v>
+        <v>-1.538057440901341</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4298315712501198</v>
+        <v>-0.4212621857418096</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.05635788650047338</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.709301819708509</v>
+        <v>-1.655211614411785</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.46211255791538</v>
+        <v>-1.508511053557635</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4674795349430704</v>
+        <v>-0.4465763335095609</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.03458139031355573</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.826085771368167</v>
+        <v>-1.778432668893841</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.427025651144094</v>
+        <v>-1.479881986911758</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5181810209597829</v>
+        <v>-0.5034947409843664</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.0136988564598887</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.99109493109694</v>
+        <v>-1.947020843153772</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.397918406687647</v>
+        <v>-1.454139064908252</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5506525878691728</v>
+        <v>-0.5302165856740524</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.006479842362583316</v>
       </c>
       <c r="E68" t="n">
-        <v>-2.156540184109588</v>
+        <v>-2.099858425857361</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.349543768052728</v>
+        <v>-1.4191247386975</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6010088587828459</v>
+        <v>-0.58472824615841</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.02603270930381564</v>
       </c>
       <c r="E69" t="n">
-        <v>-2.239558927104473</v>
+        <v>-2.179833664675273</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.347743282214968</v>
+        <v>-1.427983836527265</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6544397398280061</v>
+        <v>-0.625985110495679</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.04535879989762887</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.346825066603478</v>
+        <v>-2.287112002587813</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.288928631356153</v>
+        <v>-1.376874923498485</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6547477497697639</v>
+        <v>-0.6363446131902447</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.06496099704353281</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.43861446893</v>
+        <v>-2.381149572528828</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.224877811487455</v>
+        <v>-1.334149370171607</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7164924595596768</v>
+        <v>-0.6937229008553183</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.08432598387645021</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.436207112018875</v>
+        <v>-2.396442723577609</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.227154645373756</v>
+        <v>-1.335407636527738</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7670432951692325</v>
+        <v>-0.7399024349746207</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1022295565668585</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.432409135964765</v>
+        <v>-2.392811865788928</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.156408726236395</v>
+        <v>-1.28014028432489</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7622200424575089</v>
+        <v>-0.7438772880249878</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1167458857678175</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.441351792927245</v>
+        <v>-2.410708768206746</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.192052490585552</v>
+        <v>-1.320840901004964</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7936150993724385</v>
+        <v>-0.7713310375267713</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1263869460066027</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.323900588047225</v>
+        <v>-2.305730441166224</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.102926001933711</v>
+        <v>-1.249396622692727</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7765513485990581</v>
+        <v>-0.7595248029869592</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1305816769168592</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.214747963895039</v>
+        <v>-2.197030378156185</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.122439804065589</v>
+        <v>-1.259924463494075</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7723099602129521</v>
+        <v>-0.7522332012964362</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1296953021011689</v>
       </c>
       <c r="E77" t="n">
-        <v>-2.059486556422053</v>
+        <v>-2.050854349084038</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.015680508648962</v>
+        <v>-1.167606869861489</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7388222654560999</v>
+        <v>-0.7216450694368444</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1247201660365139</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.872746532901424</v>
+        <v>-1.864845010534153</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.999463327774908</v>
+        <v>-1.155154729325001</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7135624006285791</v>
+        <v>-0.6949195652230979</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1168481177723579</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.656209444638945</v>
+        <v>-1.66334307687419</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.9387676815490018</v>
+        <v>-1.092793389730896</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.670570311965962</v>
+        <v>-0.6593062969077789</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1067010491723456</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.46845756271559</v>
+        <v>-1.469370004048005</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.8246765296771867</v>
+        <v>-0.9808772149923645</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6249262882008443</v>
+        <v>-0.617398037287743</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.09415182435832009</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.183183024104281</v>
+        <v>-1.196081016655473</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.7259572086214531</v>
+        <v>-0.8860077132482646</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5570799319607438</v>
+        <v>-0.560011210733195</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.07888666658099275</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.8794406973217181</v>
+        <v>-0.913345577821466</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.6992109671046973</v>
+        <v>-0.8526987252496996</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4974717743014794</v>
+        <v>-0.5034008132001473</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.06071036734340948</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.6722305160480702</v>
+        <v>-0.6915686610250441</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.5561979866621661</v>
+        <v>-0.7162893559743196</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4337185957230351</v>
+        <v>-0.4439896599194724</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.03972667990211507</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.4009762240331691</v>
+        <v>-0.4196050312630851</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4516295263164186</v>
+        <v>-0.6110792590766332</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3866083226510151</v>
+        <v>-0.3983334377408198</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.01632391260379244</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.1512130969841627</v>
+        <v>-0.1659774468062029</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3259047474563112</v>
+        <v>-0.4885577836108065</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3633008139097649</v>
+        <v>-0.3683838928297832</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.008269547779407556</v>
       </c>
       <c r="E86" t="n">
-        <v>0.08881508614326805</v>
+        <v>0.08185467138021921</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.2612879211995917</v>
+        <v>-0.4131410919309091</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.3073186346737676</v>
+        <v>-0.3161478463903725</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.03206712599375119</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2936276692366194</v>
+        <v>0.2907348154668034</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.1686580481805106</v>
+        <v>-0.3125871294795173</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2544061862038434</v>
+        <v>-0.2613678208082457</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.052199680765766</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4934809873073323</v>
+        <v>0.4907833081540756</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.1243948848275506</v>
+        <v>-0.2485698552480412</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1794286374112046</v>
+        <v>-0.1847520250778616</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.06576144994184435</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6898266515660672</v>
+        <v>0.6833791800921634</v>
       </c>
       <c r="F89" t="n">
-        <v>0.00129024918856824</v>
+        <v>-0.1141213809484063</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1610206214662714</v>
+        <v>-0.1678151378052448</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.06999735517108678</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8816747607544617</v>
+        <v>0.8797583899881194</v>
       </c>
       <c r="F90" t="n">
-        <v>0.05683511529933713</v>
+        <v>-0.04301133916702695</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1029073793857165</v>
+        <v>-0.1065644637634978</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.06385560224771596</v>
       </c>
       <c r="E91" t="n">
-        <v>1.075539267700185</v>
+        <v>1.071688838467875</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1518241614960797</v>
+        <v>0.06709093147885573</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08529896944800006</v>
+        <v>-0.08510867419685465</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.04831843563619601</v>
       </c>
       <c r="E92" t="n">
-        <v>1.162387092703695</v>
+        <v>1.158955069055634</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2876101918398231</v>
+        <v>0.2081314284527836</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08392176855990294</v>
+        <v>-0.08485738687803446</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.02621769634471518</v>
       </c>
       <c r="E93" t="n">
-        <v>1.302675557483193</v>
+        <v>1.292947322689061</v>
       </c>
       <c r="F93" t="n">
-        <v>0.3758614443205298</v>
+        <v>0.3139368079309762</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.08165042395969317</v>
+        <v>-0.0808245913633763</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.00142281422774267</v>
       </c>
       <c r="E94" t="n">
-        <v>1.382481848273646</v>
+        <v>1.377956846772852</v>
       </c>
       <c r="F94" t="n">
-        <v>0.4500430466300124</v>
+        <v>0.3990701459121469</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1252377952028164</v>
+        <v>-0.1156961961357698</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.02287976380213977</v>
       </c>
       <c r="E95" t="n">
-        <v>1.36930146244912</v>
+        <v>1.370082770836034</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5243051584688256</v>
+        <v>0.4782323604679541</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.140824318097113</v>
+        <v>-0.135791252672588</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.04537165385702091</v>
       </c>
       <c r="E96" t="n">
-        <v>1.356941419934821</v>
+        <v>1.358683353387613</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6005800085409075</v>
+        <v>0.563011944456611</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1173576200592315</v>
+        <v>-0.1126630606103017</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.06562628331046813</v>
       </c>
       <c r="E97" t="n">
-        <v>1.32468942446906</v>
+        <v>1.32569091422028</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6164653925668107</v>
+        <v>0.5820018247271617</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1084417996065284</v>
+        <v>-0.1114755450526732</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.08447397163113177</v>
       </c>
       <c r="E98" t="n">
-        <v>1.258656972321608</v>
+        <v>1.262206710660282</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6273445476779658</v>
+        <v>0.5972071471984908</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1579722379238847</v>
+        <v>-0.1568060695899424</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1026338039149489</v>
       </c>
       <c r="E99" t="n">
-        <v>1.151700062605715</v>
+        <v>1.157187518934418</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5961269776799699</v>
+        <v>0.5692990067925299</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1864097894772629</v>
+        <v>-0.1809442902929235</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1257963253237601</v>
       </c>
       <c r="E100" t="n">
-        <v>1.127605146270783</v>
+        <v>1.125631442960827</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5667056240749971</v>
+        <v>0.5512715813498875</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1986441883321521</v>
+        <v>-0.1945247840813958</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1532631169771899</v>
       </c>
       <c r="E101" t="n">
-        <v>1.090277390933126</v>
+        <v>1.085225417967621</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5491484474741275</v>
+        <v>0.5297529699535393</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2259613156023442</v>
+        <v>-0.225138532609411</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1898405827656249</v>
       </c>
       <c r="E102" t="n">
-        <v>1.044677281456734</v>
+        <v>1.037949246471526</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5452608130805354</v>
+        <v>0.5249919291508439</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2237942674378583</v>
+        <v>-0.2243529547777595</v>
       </c>
     </row>
   </sheetData>
